--- a/Use Cases/Usecase beschrijving Facturen.xlsx
+++ b/Use Cases/Usecase beschrijving Facturen.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="0" windowWidth="25600" windowHeight="16120" tabRatio="500"/>
+    <workbookView xWindow="2640" yWindow="0" windowWidth="25600" windowHeight="16240" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -18,9 +18,128 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="38">
+  <si>
+    <t>Kolom1</t>
+  </si>
+  <si>
+    <t>Kolom2</t>
+  </si>
+  <si>
+    <t>Naam</t>
+  </si>
+  <si>
+    <t>Versie</t>
+  </si>
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>Actor</t>
+  </si>
+  <si>
+    <t>Preconditie</t>
+  </si>
+  <si>
+    <t>Beschrijving</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kan gegevens zien van de Klant en kan ook de facturens zien van deze klant. </t>
+  </si>
+  <si>
+    <t>Uitzondering</t>
+  </si>
+  <si>
+    <t>Non-functie requirments</t>
+  </si>
+  <si>
+    <t>Moet snel kunnen werken en makkelijk te bedienen zijn.</t>
+  </si>
+  <si>
+    <t>Postconditie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Melding als het succesvol is toegevoegd. </t>
+  </si>
+  <si>
+    <t>Kan Kiezen wat die precies wilt veranderen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Melding als het succesvol is Bewerkt. </t>
+  </si>
+  <si>
+    <t>Medewerker kan klant inactief maken</t>
+  </si>
+  <si>
+    <t>BKR controle vanuit de Financien, Als dat niet positief is moet deze klant inactief worden gezet.</t>
+  </si>
+  <si>
+    <t>Kan gegevens niet meer zien van de klant en systeembeheerder kan de klant alleen nog maar actief maken.</t>
+  </si>
+  <si>
+    <t>Melding als het succesvol is is bewerkt door het inactief te maken.</t>
+  </si>
+  <si>
+    <t>Financien,  Database</t>
+  </si>
+  <si>
+    <t>Medewerker selecteert „Facturens”</t>
+  </si>
+  <si>
+    <t>Voert cijfers in van Facturen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kan documentatie bekijken van de Facturens. </t>
+  </si>
+  <si>
+    <t>Medewerker kan een nieuwe Facaturen toevoegen.</t>
+  </si>
+  <si>
+    <t>Medewerker kan documentatie zien van Facaturens</t>
+  </si>
+  <si>
+    <t>Factuur bekijken</t>
+  </si>
+  <si>
+    <t>Factuur toevoegen</t>
+  </si>
+  <si>
+    <t>Factuur bewerken</t>
+  </si>
+  <si>
+    <t>Factuur inactief maken</t>
+  </si>
+  <si>
+    <t>Laat zien welke betaald of niet betaald zijn.</t>
+  </si>
+  <si>
+    <t>Medewerker selecteert „Factuur Toevoegen”</t>
+  </si>
+  <si>
+    <t>Voert gegevens in van de klant in enz.</t>
+  </si>
+  <si>
+    <t>Medewerker kan factuur gegevens bewerken</t>
+  </si>
+  <si>
+    <t>Medewerker selecteert „factuur Bewerken”</t>
+  </si>
+  <si>
+    <t>Kan gegevens zien van een factuur.</t>
+  </si>
+  <si>
+    <t>Medewerker selecteert „factuur inactief maken”</t>
+  </si>
+  <si>
+    <t>Gegevens kunnen zien van factuur</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -28,16 +147,51 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -45,14 +199,115 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="Gevolgde hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normaal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -382,13 +637,383 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="26.1640625" customWidth="1"/>
+    <col min="2" max="2" width="60.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="11"/>
+      <c r="B7" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="12"/>
+      <c r="B8" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="11"/>
+      <c r="B19" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="30">
+      <c r="A20" s="12"/>
+      <c r="B20" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="11"/>
+      <c r="B31" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="12"/>
+      <c r="B32" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="5"/>
+      <c r="B36" s="5"/>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="30">
+      <c r="A43" s="11"/>
+      <c r="B43" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="30">
+      <c r="A44" s="12"/>
+      <c r="B44" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="5"/>
+      <c r="B48" s="5"/>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="5"/>
+      <c r="B49" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="A42:A44"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/Use Cases/Usecase beschrijving Facturen.xlsx
+++ b/Use Cases/Usecase beschrijving Facturen.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="0" windowWidth="25600" windowHeight="16240" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16320" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -640,7 +640,7 @@
   <dimension ref="A1:B49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1013,7 +1013,6 @@
     <mergeCell ref="A42:A44"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
